--- a/Propeller Packages/APC_11x7/CdvsAlpha_RPM5000.xlsx
+++ b/Propeller Packages/APC_11x7/CdvsAlpha_RPM5000.xlsx
@@ -115,52 +115,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="3.85546875" customWidth="true"/>
-    <col min="4" max="4" width="7.7109375" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
-    <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="3.85546875" customWidth="true"/>
-    <col min="8" max="8" width="7.7109375" customWidth="true"/>
-    <col min="9" max="9" width="3.85546875" customWidth="true"/>
-    <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="3.85546875" customWidth="true"/>
-    <col min="12" max="12" width="7.7109375" customWidth="true"/>
-    <col min="13" max="13" width="3.85546875" customWidth="true"/>
-    <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="3.85546875" customWidth="true"/>
-    <col min="16" max="16" width="7.7109375" customWidth="true"/>
-    <col min="17" max="17" width="3.85546875" customWidth="true"/>
-    <col min="18" max="18" width="7.7109375" customWidth="true"/>
-    <col min="19" max="19" width="3.85546875" customWidth="true"/>
-    <col min="20" max="20" width="7.7109375" customWidth="true"/>
-    <col min="21" max="21" width="3.85546875" customWidth="true"/>
-    <col min="22" max="22" width="7.7109375" customWidth="true"/>
-    <col min="23" max="23" width="3.85546875" customWidth="true"/>
-    <col min="24" max="24" width="7.7109375" customWidth="true"/>
-    <col min="25" max="25" width="3.85546875" customWidth="true"/>
-    <col min="26" max="26" width="7.7109375" customWidth="true"/>
-    <col min="27" max="27" width="3.85546875" customWidth="true"/>
-    <col min="28" max="28" width="7.7109375" customWidth="true"/>
-    <col min="29" max="29" width="3.85546875" customWidth="true"/>
-    <col min="30" max="30" width="7.7109375" customWidth="true"/>
-    <col min="31" max="31" width="3.85546875" customWidth="true"/>
-    <col min="32" max="32" width="7.7109375" customWidth="true"/>
-    <col min="33" max="33" width="3.85546875" customWidth="true"/>
-    <col min="34" max="34" width="7.7109375" customWidth="true"/>
-    <col min="35" max="35" width="3.85546875" customWidth="true"/>
-    <col min="36" max="36" width="7.7109375" customWidth="true"/>
-    <col min="37" max="37" width="3.85546875" customWidth="true"/>
-    <col min="38" max="38" width="7.7109375" customWidth="true"/>
-    <col min="39" max="39" width="3.85546875" customWidth="true"/>
-    <col min="40" max="40" width="7.7109375" customWidth="true"/>
+    <col min="1" max="1" width="3.6640625" customWidth="true"/>
+    <col min="2" max="2" width="7.5546875" customWidth="true"/>
+    <col min="3" max="3" width="3.6640625" customWidth="true"/>
+    <col min="4" max="4" width="7.5546875" customWidth="true"/>
+    <col min="5" max="5" width="3.6640625" customWidth="true"/>
+    <col min="6" max="6" width="7.5546875" customWidth="true"/>
+    <col min="7" max="7" width="3.6640625" customWidth="true"/>
+    <col min="8" max="8" width="7.5546875" customWidth="true"/>
+    <col min="9" max="9" width="3.6640625" customWidth="true"/>
+    <col min="10" max="10" width="7.5546875" customWidth="true"/>
+    <col min="11" max="11" width="3.6640625" customWidth="true"/>
+    <col min="12" max="12" width="7.5546875" customWidth="true"/>
+    <col min="13" max="13" width="3.6640625" customWidth="true"/>
+    <col min="14" max="14" width="7.5546875" customWidth="true"/>
+    <col min="15" max="15" width="3.6640625" customWidth="true"/>
+    <col min="16" max="16" width="7.5546875" customWidth="true"/>
+    <col min="17" max="17" width="3.6640625" customWidth="true"/>
+    <col min="18" max="18" width="7.5546875" customWidth="true"/>
+    <col min="19" max="19" width="3.6640625" customWidth="true"/>
+    <col min="20" max="20" width="7.5546875" customWidth="true"/>
+    <col min="21" max="21" width="3.6640625" customWidth="true"/>
+    <col min="22" max="22" width="7.5546875" customWidth="true"/>
+    <col min="23" max="23" width="3.6640625" customWidth="true"/>
+    <col min="24" max="24" width="7.5546875" customWidth="true"/>
+    <col min="25" max="25" width="3.6640625" customWidth="true"/>
+    <col min="26" max="26" width="7.5546875" customWidth="true"/>
+    <col min="27" max="27" width="3.6640625" customWidth="true"/>
+    <col min="28" max="28" width="7.5546875" customWidth="true"/>
+    <col min="29" max="29" width="3" customWidth="true"/>
+    <col min="30" max="30" width="7.5546875" customWidth="true"/>
+    <col min="31" max="31" width="3.6640625" customWidth="true"/>
+    <col min="32" max="32" width="7.5546875" customWidth="true"/>
+    <col min="33" max="33" width="3.6640625" customWidth="true"/>
+    <col min="34" max="34" width="7.5546875" customWidth="true"/>
+    <col min="35" max="35" width="3.6640625" customWidth="true"/>
+    <col min="36" max="36" width="7.5546875" customWidth="true"/>
+    <col min="37" max="37" width="3.6640625" customWidth="true"/>
+    <col min="38" max="38" width="7.5546875" customWidth="true"/>
+    <col min="39" max="39" width="3.6640625" customWidth="true"/>
+    <col min="40" max="40" width="7.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -287,3676 +287,3096 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="B2" s="0">
-        <v>0.22869</v>
+        <v>0.20813999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="D2" s="0">
-        <v>0.21812000000000001</v>
+        <v>0.17215</v>
       </c>
       <c r="E2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="F2" s="0">
-        <v>0.19613</v>
+        <v>0.14726</v>
       </c>
       <c r="G2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="H2" s="0">
-        <v>0.19453000000000001</v>
+        <v>0.13441</v>
       </c>
       <c r="I2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="J2" s="0">
-        <v>0.19137999999999999</v>
+        <v>0.12608</v>
       </c>
       <c r="K2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="L2" s="0">
-        <v>0.19169</v>
+        <v>0.12138</v>
       </c>
       <c r="M2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="N2" s="0">
-        <v>0.18564</v>
+        <v>0.11373999999999999</v>
       </c>
       <c r="O2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="P2" s="0">
-        <v>0.17816000000000001</v>
+        <v>0.10992</v>
       </c>
       <c r="Q2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="R2" s="0">
-        <v>0.17369999999999999</v>
+        <v>0.10693999999999999</v>
       </c>
       <c r="S2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="T2" s="0">
-        <v>0.17077000000000001</v>
+        <v>0.10573</v>
       </c>
       <c r="U2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="V2" s="0">
-        <v>0.16911000000000001</v>
+        <v>0.10455</v>
       </c>
       <c r="W2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="X2" s="0">
-        <v>0.16905999999999999</v>
+        <v>0.10546999999999999</v>
       </c>
       <c r="Y2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.17038</v>
+        <v>0.10596999999999999</v>
       </c>
       <c r="AA2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AB2" s="0">
-        <v>0.17080999999999999</v>
+        <v>0.10722</v>
       </c>
       <c r="AC2" s="0">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="AD2" s="0">
-        <v>0.17177000000000001</v>
+        <v>0.085930000000000006</v>
       </c>
       <c r="AE2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AF2" s="0">
-        <v>0.17241999999999999</v>
+        <v>0.1085</v>
       </c>
       <c r="AG2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AH2" s="0">
-        <v>0.17691000000000001</v>
+        <v>0.1101</v>
       </c>
       <c r="AI2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0.15798000000000001</v>
+        <v>0.11282</v>
       </c>
       <c r="AK2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AL2" s="0">
-        <v>0.19345999999999999</v>
+        <v>0.12742999999999999</v>
       </c>
       <c r="AM2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AN2" s="0">
-        <v>0.21360999999999999</v>
+        <v>0.14302999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="B3" s="0">
-        <v>0.22519</v>
+        <v>0.20028000000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="D3" s="0">
-        <v>0.21081</v>
+        <v>0.16117999999999999</v>
       </c>
       <c r="E3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="F3" s="0">
-        <v>0.18719</v>
+        <v>0.13754</v>
       </c>
       <c r="G3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="H3" s="0">
-        <v>0.18179999999999999</v>
+        <v>0.12255000000000001</v>
       </c>
       <c r="I3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="J3" s="0">
-        <v>0.18037</v>
+        <v>0.11444</v>
       </c>
       <c r="K3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="L3" s="0">
-        <v>0.17771999999999999</v>
+        <v>0.10778</v>
       </c>
       <c r="M3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="N3" s="0">
-        <v>0.1762</v>
+        <v>0.097489999999999993</v>
       </c>
       <c r="O3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="P3" s="0">
-        <v>0.1719</v>
+        <v>0.092270000000000005</v>
       </c>
       <c r="Q3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="R3" s="0">
-        <v>0.16602</v>
+        <v>0.088209999999999997</v>
       </c>
       <c r="S3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="T3" s="0">
-        <v>0.16224</v>
+        <v>0.086029999999999995</v>
       </c>
       <c r="U3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="V3" s="0">
-        <v>0.16173000000000001</v>
+        <v>0.083820000000000006</v>
       </c>
       <c r="W3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="X3" s="0">
-        <v>0.15828</v>
+        <v>0.08301</v>
       </c>
       <c r="Y3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.15751999999999999</v>
+        <v>0.085339999999999999</v>
       </c>
       <c r="AA3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.15787000000000001</v>
+        <v>0.087349999999999997</v>
       </c>
       <c r="AC3" s="0">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.15895000000000001</v>
+        <v>0.054919999999999997</v>
       </c>
       <c r="AE3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.16147</v>
+        <v>0.09819</v>
       </c>
       <c r="AG3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.16245999999999999</v>
+        <v>0.095049999999999996</v>
       </c>
       <c r="AI3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.15131</v>
+        <v>0.10058</v>
       </c>
       <c r="AK3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.17829999999999999</v>
+        <v>0.11334</v>
       </c>
       <c r="AM3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.20466000000000001</v>
+        <v>0.13493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="B4" s="0">
-        <v>0.22075</v>
+        <v>0.18847</v>
       </c>
       <c r="C4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="D4" s="0">
-        <v>0.1986</v>
+        <v>0.15160000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="F4" s="0">
-        <v>0.17643</v>
+        <v>0.12842000000000001</v>
       </c>
       <c r="G4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="H4" s="0">
-        <v>0.17491000000000001</v>
+        <v>0.11377</v>
       </c>
       <c r="I4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="J4" s="0">
-        <v>0.16864000000000001</v>
+        <v>0.10298</v>
       </c>
       <c r="K4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="L4" s="0">
-        <v>0.16561999999999999</v>
+        <v>0.091639999999999999</v>
       </c>
       <c r="M4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="N4" s="0">
-        <v>0.16223000000000001</v>
+        <v>0.071980000000000002</v>
       </c>
       <c r="O4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="P4" s="0">
-        <v>0.16181999999999999</v>
+        <v>0.063549999999999995</v>
       </c>
       <c r="Q4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="R4" s="0">
-        <v>0.16170999999999999</v>
+        <v>0.05969</v>
       </c>
       <c r="S4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="T4" s="0">
-        <v>0.15515000000000001</v>
+        <v>0.050939999999999999</v>
       </c>
       <c r="U4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="V4" s="0">
-        <v>0.15104000000000001</v>
+        <v>0.049169999999999999</v>
       </c>
       <c r="W4" s="0">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="X4" s="0">
-        <v>0.14005000000000001</v>
+        <v>0.046199999999999998</v>
       </c>
       <c r="Y4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.14856</v>
+        <v>0.044859999999999997</v>
       </c>
       <c r="AA4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.14771000000000001</v>
+        <v>0.052740000000000002</v>
       </c>
       <c r="AC4" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AD4" s="0">
-        <v>0.13536999999999999</v>
+        <v>0.037760000000000002</v>
       </c>
       <c r="AE4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AF4" s="0">
-        <v>0.14796999999999999</v>
+        <v>0.070010000000000003</v>
       </c>
       <c r="AG4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AH4" s="0">
-        <v>0.15276999999999999</v>
+        <v>0.078310000000000005</v>
       </c>
       <c r="AI4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0.14438999999999999</v>
+        <v>0.088389999999999996</v>
       </c>
       <c r="AK4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AL4" s="0">
-        <v>0.16639999999999999</v>
+        <v>0.10161000000000001</v>
       </c>
       <c r="AM4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AN4" s="0">
-        <v>0.19597000000000001</v>
+        <v>0.12709999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="B5" s="0">
-        <v>0.21565000000000001</v>
+        <v>0.17943999999999999</v>
       </c>
       <c r="C5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="D5" s="0">
-        <v>0.19436999999999999</v>
+        <v>0.14229</v>
       </c>
       <c r="E5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="F5" s="0">
-        <v>0.17036000000000001</v>
+        <v>0.1171</v>
       </c>
       <c r="G5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="H5" s="0">
-        <v>0.16114000000000001</v>
+        <v>0.10181999999999999</v>
       </c>
       <c r="I5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="J5" s="0">
-        <v>0.15834999999999999</v>
+        <v>0.084440000000000001</v>
       </c>
       <c r="K5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="L5" s="0">
-        <v>0.15246000000000001</v>
+        <v>0.073889999999999997</v>
       </c>
       <c r="M5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="N5" s="0">
-        <v>0.14990000000000001</v>
+        <v>0.060060000000000002</v>
       </c>
       <c r="O5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="P5" s="0">
-        <v>0.14682000000000001</v>
+        <v>0.051470000000000002</v>
       </c>
       <c r="Q5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="R5" s="0">
-        <v>0.14507999999999999</v>
+        <v>0.044519999999999997</v>
       </c>
       <c r="S5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="T5" s="0">
-        <v>0.14477999999999999</v>
+        <v>0.041180000000000001</v>
       </c>
       <c r="U5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="V5" s="0">
-        <v>0.14462</v>
+        <v>0.038629999999999998</v>
       </c>
       <c r="W5" s="0">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="X5" s="0">
-        <v>0.12311</v>
+        <v>0.03669</v>
       </c>
       <c r="Y5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.13800000000000001</v>
+        <v>0.036549999999999999</v>
       </c>
       <c r="AA5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.13586999999999999</v>
+        <v>0.036499999999999998</v>
       </c>
       <c r="AC5" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AD5" s="0">
-        <v>0.12060999999999999</v>
+        <v>0.030810000000000001</v>
       </c>
       <c r="AE5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AF5" s="0">
-        <v>0.13697999999999999</v>
+        <v>0.04446</v>
       </c>
       <c r="AG5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AH5" s="0">
-        <v>0.13783000000000001</v>
+        <v>0.051479999999999998</v>
       </c>
       <c r="AI5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AJ5" s="0">
-        <v>0.13395000000000001</v>
+        <v>0.067890000000000006</v>
       </c>
       <c r="AK5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AL5" s="0">
-        <v>0.15509000000000001</v>
+        <v>0.08974</v>
       </c>
       <c r="AM5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AN5" s="0">
-        <v>0.18754000000000001</v>
+        <v>0.11951000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="B6" s="0">
-        <v>0.21056</v>
+        <v>0.16991000000000001</v>
       </c>
       <c r="C6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="D6" s="0">
-        <v>0.18274000000000001</v>
+        <v>0.13133</v>
       </c>
       <c r="E6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="F6" s="0">
-        <v>0.16199</v>
+        <v>0.10153</v>
       </c>
       <c r="G6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="H6" s="0">
-        <v>0.14654</v>
+        <v>0.082180000000000003</v>
       </c>
       <c r="I6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="J6" s="0">
-        <v>0.14532</v>
+        <v>0.070819999999999994</v>
       </c>
       <c r="K6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="L6" s="0">
-        <v>0.13975000000000001</v>
+        <v>0.06053</v>
       </c>
       <c r="M6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="N6" s="0">
-        <v>0.13052</v>
+        <v>0.050340000000000003</v>
       </c>
       <c r="O6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="P6" s="0">
-        <v>0.12773999999999999</v>
+        <v>0.04224</v>
       </c>
       <c r="Q6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="R6" s="0">
-        <v>0.12556999999999999</v>
+        <v>0.038350000000000002</v>
       </c>
       <c r="S6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="T6" s="0">
-        <v>0.12494</v>
+        <v>0.034549999999999997</v>
       </c>
       <c r="U6" s="0">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="V6" s="0">
-        <v>0.10456</v>
+        <v>0.032250000000000001</v>
       </c>
       <c r="W6" s="0">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="X6" s="0">
-        <v>0.10546</v>
+        <v>0.030640000000000001</v>
       </c>
       <c r="Y6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.12662999999999999</v>
+        <v>0.029530000000000001</v>
       </c>
       <c r="AA6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.12069000000000001</v>
+        <v>0.029819999999999999</v>
       </c>
       <c r="AC6" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AD6" s="0">
-        <v>0.10967</v>
+        <v>0.02613</v>
       </c>
       <c r="AE6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.12463</v>
+        <v>0.03295</v>
       </c>
       <c r="AG6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.12676999999999999</v>
+        <v>0.03848</v>
       </c>
       <c r="AI6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AJ6" s="0">
-        <v>0.12583</v>
+        <v>0.049160000000000002</v>
       </c>
       <c r="AK6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AL6" s="0">
-        <v>0.14232</v>
+        <v>0.077039999999999997</v>
       </c>
       <c r="AM6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AN6" s="0">
-        <v>0.17935999999999999</v>
+        <v>0.11216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="B7" s="0">
-        <v>0.20809</v>
+        <v>0.15931999999999999</v>
       </c>
       <c r="C7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="D7" s="0">
-        <v>0.17510999999999999</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F7" s="0">
-        <v>0.14707000000000001</v>
+        <v>0.085639999999999994</v>
       </c>
       <c r="G7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="H7" s="0">
-        <v>0.13441</v>
+        <v>0.070610000000000006</v>
       </c>
       <c r="I7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="J7" s="0">
-        <v>0.12606999999999999</v>
+        <v>0.062899999999999998</v>
       </c>
       <c r="K7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="L7" s="0">
-        <v>0.12138</v>
+        <v>0.055210000000000002</v>
       </c>
       <c r="M7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="N7" s="0">
-        <v>0.11373999999999999</v>
+        <v>0.045100000000000001</v>
       </c>
       <c r="O7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="P7" s="0">
-        <v>0.10992</v>
+        <v>0.03814</v>
       </c>
       <c r="Q7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="R7" s="0">
-        <v>0.10693999999999999</v>
+        <v>0.034169999999999999</v>
       </c>
       <c r="S7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="T7" s="0">
-        <v>0.10573</v>
+        <v>0.030870000000000002</v>
       </c>
       <c r="U7" s="0">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="V7" s="0">
-        <v>0.083820000000000006</v>
+        <v>0.028500000000000001</v>
       </c>
       <c r="W7" s="0">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="X7" s="0">
-        <v>0.083019999999999997</v>
+        <v>0.026970000000000001</v>
       </c>
       <c r="Y7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.10596999999999999</v>
+        <v>0.02597</v>
       </c>
       <c r="AA7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.10723000000000001</v>
+        <v>0.025659999999999999</v>
       </c>
       <c r="AC7" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AD7" s="0">
-        <v>0.08591</v>
+        <v>0.023120000000000002</v>
       </c>
       <c r="AE7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AF7" s="0">
-        <v>0.1085</v>
+        <v>0.027459999999999998</v>
       </c>
       <c r="AG7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AH7" s="0">
-        <v>0.1101</v>
+        <v>0.030540000000000001</v>
       </c>
       <c r="AI7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AJ7" s="0">
-        <v>0.11463</v>
+        <v>0.038269999999999999</v>
       </c>
       <c r="AK7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AL7" s="0">
-        <v>0.13141</v>
+        <v>0.063030000000000003</v>
       </c>
       <c r="AM7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AN7" s="0">
-        <v>0.17138999999999999</v>
+        <v>0.10506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="B8" s="0">
-        <v>0.20033999999999999</v>
+        <v>0.14732000000000001</v>
       </c>
       <c r="C8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="D8" s="0">
-        <v>0.16122</v>
+        <v>0.10561</v>
       </c>
       <c r="E8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="F8" s="0">
-        <v>0.13754</v>
+        <v>0.077969999999999998</v>
       </c>
       <c r="G8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="H8" s="0">
-        <v>0.12254</v>
+        <v>0.065339999999999995</v>
       </c>
       <c r="I8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="J8" s="0">
-        <v>0.11444</v>
+        <v>0.058740000000000001</v>
       </c>
       <c r="K8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="L8" s="0">
-        <v>0.10778</v>
+        <v>0.052470000000000003</v>
       </c>
       <c r="M8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="N8" s="0">
-        <v>0.097460000000000005</v>
+        <v>0.042439999999999999</v>
       </c>
       <c r="O8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="P8" s="0">
-        <v>0.092249999999999999</v>
+        <v>0.036269999999999997</v>
       </c>
       <c r="Q8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="R8" s="0">
-        <v>0.088200000000000001</v>
+        <v>0.031280000000000002</v>
       </c>
       <c r="S8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="T8" s="0">
-        <v>0.086029999999999995</v>
+        <v>0.028299999999999999</v>
       </c>
       <c r="U8" s="0">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="V8" s="0">
-        <v>0.049140000000000003</v>
+        <v>0.025680000000000001</v>
       </c>
       <c r="W8" s="0">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="X8" s="0">
-        <v>0.046190000000000002</v>
+        <v>0.024379999999999999</v>
       </c>
       <c r="Y8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.085339999999999999</v>
+        <v>0.02349</v>
       </c>
       <c r="AA8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.087349999999999997</v>
+        <v>0.02292</v>
       </c>
       <c r="AC8" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AD8" s="0">
-        <v>0.05493</v>
+        <v>0.020920000000000001</v>
       </c>
       <c r="AE8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AF8" s="0">
-        <v>0.09819</v>
+        <v>0.024170000000000001</v>
       </c>
       <c r="AG8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.095049999999999996</v>
+        <v>0.02649</v>
       </c>
       <c r="AI8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0.098750000000000004</v>
+        <v>0.031789999999999999</v>
       </c>
       <c r="AK8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AL8" s="0">
-        <v>0.11334</v>
+        <v>0.051959999999999999</v>
       </c>
       <c r="AM8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AN8" s="0">
-        <v>0.1636</v>
+        <v>0.09826</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="B9" s="0">
-        <v>0.18845000000000001</v>
+        <v>0.13382</v>
       </c>
       <c r="C9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="D9" s="0">
-        <v>0.15164</v>
+        <v>0.095570000000000002</v>
       </c>
       <c r="E9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="F9" s="0">
-        <v>0.12848999999999999</v>
+        <v>0.074719999999999995</v>
       </c>
       <c r="G9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="H9" s="0">
-        <v>0.11378000000000001</v>
+        <v>0.064409999999999995</v>
       </c>
       <c r="I9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="J9" s="0">
-        <v>0.10297000000000001</v>
+        <v>0.058099999999999999</v>
       </c>
       <c r="K9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="L9" s="0">
-        <v>0.091630000000000003</v>
+        <v>0.051580000000000001</v>
       </c>
       <c r="M9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="N9" s="0">
-        <v>0.072020000000000001</v>
+        <v>0.041200000000000001</v>
       </c>
       <c r="O9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="P9" s="0">
-        <v>0.063549999999999995</v>
+        <v>0.034889999999999998</v>
       </c>
       <c r="Q9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="R9" s="0">
-        <v>0.05969</v>
+        <v>0.029440000000000001</v>
       </c>
       <c r="S9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="T9" s="0">
-        <v>0.050930000000000003</v>
+        <v>0.026460000000000001</v>
       </c>
       <c r="U9" s="0">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="V9" s="0">
-        <v>0.038629999999999998</v>
+        <v>0.024219999999999999</v>
       </c>
       <c r="W9" s="0">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="X9" s="0">
-        <v>0.03669</v>
+        <v>0.0223</v>
       </c>
       <c r="Y9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.044859999999999997</v>
+        <v>0.021430000000000001</v>
       </c>
       <c r="AA9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.052740000000000002</v>
+        <v>0.020979999999999999</v>
       </c>
       <c r="AC9" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.037749999999999999</v>
+        <v>0.01941</v>
       </c>
       <c r="AE9" s="0">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="AF9" s="0">
-        <v>0.070019999999999999</v>
+        <v>0.019980000000000001</v>
       </c>
       <c r="AG9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AH9" s="0">
-        <v>0.078310000000000005</v>
+        <v>0.023619999999999999</v>
       </c>
       <c r="AI9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AJ9" s="0">
-        <v>0.087959999999999997</v>
+        <v>0.02811</v>
       </c>
       <c r="AK9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AL9" s="0">
-        <v>0.10161000000000001</v>
+        <v>0.044139999999999999</v>
       </c>
       <c r="AM9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AN9" s="0">
-        <v>0.156</v>
+        <v>0.092520000000000005</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="B10" s="0">
-        <v>0.17943999999999999</v>
+        <v>0.12166</v>
       </c>
       <c r="C10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="D10" s="0">
-        <v>0.14230999999999999</v>
+        <v>0.08949</v>
       </c>
       <c r="E10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F10" s="0">
-        <v>0.11716</v>
+        <v>0.072599999999999998</v>
       </c>
       <c r="G10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="H10" s="0">
-        <v>0.10183</v>
+        <v>0.064710000000000004</v>
       </c>
       <c r="I10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="J10" s="0">
-        <v>0.084430000000000005</v>
+        <v>0.057669999999999999</v>
       </c>
       <c r="K10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="L10" s="0">
-        <v>0.073880000000000001</v>
+        <v>0.05151</v>
       </c>
       <c r="M10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="N10" s="0">
-        <v>0.060049999999999999</v>
+        <v>0.042250000000000003</v>
       </c>
       <c r="O10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="P10" s="0">
-        <v>0.051459999999999999</v>
+        <v>0.03422</v>
       </c>
       <c r="Q10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="R10" s="0">
-        <v>0.044519999999999997</v>
+        <v>0.029149999999999999</v>
       </c>
       <c r="S10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="T10" s="0">
-        <v>0.041180000000000001</v>
+        <v>0.025159999999999998</v>
       </c>
       <c r="U10" s="0">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="V10" s="0">
-        <v>0.032250000000000001</v>
+        <v>0.022929999999999999</v>
       </c>
       <c r="W10" s="0">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="X10" s="0">
-        <v>0.030640000000000001</v>
+        <v>0.02128</v>
       </c>
       <c r="Y10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.036549999999999999</v>
+        <v>0.020209999999999999</v>
       </c>
       <c r="AA10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.036499999999999998</v>
+        <v>0.01942</v>
       </c>
       <c r="AC10" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AD10" s="0">
-        <v>0.030810000000000001</v>
+        <v>0.01788</v>
       </c>
       <c r="AE10" s="0">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="AF10" s="0">
-        <v>0.04446</v>
+        <v>0.018239999999999999</v>
       </c>
       <c r="AG10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AH10" s="0">
-        <v>0.051479999999999998</v>
+        <v>0.021770000000000001</v>
       </c>
       <c r="AI10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0.064810000000000006</v>
+        <v>0.025870000000000001</v>
       </c>
       <c r="AK10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AL10" s="0">
-        <v>0.08974</v>
+        <v>0.040169999999999997</v>
       </c>
       <c r="AM10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AN10" s="0">
-        <v>0.14860999999999999</v>
+        <v>0.089510000000000006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="B11" s="0">
-        <v>0.16996</v>
+        <v>0.11294</v>
       </c>
       <c r="C11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.13149</v>
+        <v>0.086489999999999998</v>
       </c>
       <c r="E11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F11" s="0">
-        <v>0.10186000000000001</v>
+        <v>0.071620000000000003</v>
       </c>
       <c r="G11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="0">
-        <v>0.082180000000000003</v>
+        <v>0.064019999999999994</v>
       </c>
       <c r="I11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="0">
-        <v>0.070809999999999998</v>
+        <v>0.05799</v>
       </c>
       <c r="K11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="L11" s="0">
-        <v>0.060519999999999997</v>
+        <v>0.0511</v>
       </c>
       <c r="M11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="N11" s="0">
-        <v>0.050340000000000003</v>
+        <v>0.040689999999999997</v>
       </c>
       <c r="O11" s="0">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>0.04224</v>
+        <v>0.03141</v>
       </c>
       <c r="Q11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="R11" s="0">
-        <v>0.038350000000000002</v>
+        <v>0.027199999999999999</v>
       </c>
       <c r="S11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="T11" s="0">
-        <v>0.034549999999999997</v>
+        <v>0.023869999999999999</v>
       </c>
       <c r="U11" s="0">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="V11" s="0">
-        <v>0.028500000000000001</v>
+        <v>0.02154</v>
       </c>
       <c r="W11" s="0">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="X11" s="0">
-        <v>0.026970000000000001</v>
+        <v>0.019879999999999998</v>
       </c>
       <c r="Y11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="Z11" s="0">
-        <v>0.029530000000000001</v>
+        <v>0.018839999999999999</v>
       </c>
       <c r="AA11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AB11" s="0">
-        <v>0.029819999999999999</v>
+        <v>0.017999999999999999</v>
       </c>
       <c r="AC11" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.02613</v>
+        <v>0.016400000000000001</v>
       </c>
       <c r="AE11" s="0">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="0">
-        <v>0.03295</v>
+        <v>0.01669</v>
       </c>
       <c r="AG11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AH11" s="0">
-        <v>0.03848</v>
+        <v>0.01985</v>
       </c>
       <c r="AI11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0.03823</v>
+        <v>0.0235</v>
       </c>
       <c r="AK11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AL11" s="0">
-        <v>0.077039999999999997</v>
+        <v>0.036150000000000002</v>
       </c>
       <c r="AM11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AN11" s="0">
-        <v>0.14149</v>
+        <v>0.088730000000000003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B12" s="0">
-        <v>0.1593</v>
+        <v>0.10781</v>
       </c>
       <c r="C12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>0.11763</v>
+        <v>0.085199999999999998</v>
       </c>
       <c r="E12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>0.085349999999999995</v>
+        <v>0.071010000000000004</v>
       </c>
       <c r="G12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>0.070599999999999996</v>
+        <v>0.064890000000000003</v>
       </c>
       <c r="I12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.062899999999999998</v>
+        <v>0.057090000000000002</v>
       </c>
       <c r="K12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
-        <v>0.055219999999999998</v>
+        <v>0.050750000000000004</v>
       </c>
       <c r="M12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.045100000000000001</v>
+        <v>0.040340000000000001</v>
       </c>
       <c r="O12" s="0">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="P12" s="0">
-        <v>0.03814</v>
+        <v>0.02954</v>
       </c>
       <c r="Q12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>0.034169999999999999</v>
+        <v>0.025940000000000001</v>
       </c>
       <c r="S12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>0.030870000000000002</v>
+        <v>0.022159999999999999</v>
       </c>
       <c r="U12" s="0">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>0.025680000000000001</v>
+        <v>0.01983</v>
       </c>
       <c r="W12" s="0">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0.024379999999999999</v>
+        <v>0.018249999999999999</v>
       </c>
       <c r="Y12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.02598</v>
+        <v>0.01728</v>
       </c>
       <c r="AA12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.025659999999999999</v>
+        <v>0.016559999999999998</v>
       </c>
       <c r="AC12" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="0">
-        <v>0.023120000000000002</v>
+        <v>0.016559999999999998</v>
       </c>
       <c r="AE12" s="0">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="0">
-        <v>0.027459999999999998</v>
+        <v>0.016910000000000001</v>
       </c>
       <c r="AG12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="0">
-        <v>0.030540000000000001</v>
+        <v>0.018259999999999999</v>
       </c>
       <c r="AI12" s="0">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="0">
-        <v>0.02528</v>
+        <v>0.02264</v>
       </c>
       <c r="AK12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>0.063030000000000003</v>
+        <v>0.037409999999999999</v>
       </c>
       <c r="AM12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="0">
-        <v>0.13492999999999999</v>
+        <v>0.089370000000000005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>0.14735999999999999</v>
+        <v>0.10730000000000001</v>
       </c>
       <c r="C13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0">
-        <v>0.10553999999999999</v>
+        <v>0.085739999999999997</v>
       </c>
       <c r="E13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="0">
-        <v>0.078130000000000005</v>
+        <v>0.072279999999999997</v>
       </c>
       <c r="G13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0">
-        <v>0.065329999999999999</v>
+        <v>0.065019999999999995</v>
       </c>
       <c r="I13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J13" s="0">
-        <v>0.058749999999999997</v>
+        <v>0.058790000000000002</v>
       </c>
       <c r="K13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="L13" s="0">
-        <v>0.052470000000000003</v>
+        <v>0.051470000000000002</v>
       </c>
       <c r="M13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="N13" s="0">
-        <v>0.042439999999999999</v>
+        <v>0.038879999999999998</v>
       </c>
       <c r="O13" s="0">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="P13" s="0">
-        <v>0.036269999999999997</v>
+        <v>0.03083</v>
       </c>
       <c r="Q13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="R13" s="0">
-        <v>0.031280000000000002</v>
+        <v>0.024830000000000001</v>
       </c>
       <c r="S13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="T13" s="0">
-        <v>0.028299999999999999</v>
+        <v>0.021770000000000001</v>
       </c>
       <c r="U13" s="0">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="V13" s="0">
-        <v>0.024219999999999998</v>
+        <v>0.01968</v>
       </c>
       <c r="W13" s="0">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X13" s="0">
-        <v>0.0223</v>
+        <v>0.018290000000000001</v>
       </c>
       <c r="Y13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.02349</v>
+        <v>0.017409999999999998</v>
       </c>
       <c r="AA13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="0">
-        <v>0.022919999999999999</v>
+        <v>0.016740000000000001</v>
       </c>
       <c r="AC13" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.020920000000000001</v>
+        <v>0.016969999999999999</v>
       </c>
       <c r="AE13" s="0">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.024170000000000001</v>
+        <v>0.0173</v>
       </c>
       <c r="AG13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.02649</v>
+        <v>0.018460000000000001</v>
       </c>
       <c r="AI13" s="0">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="AJ13" s="0">
-        <v>0.018280000000000001</v>
+        <v>0.02283</v>
       </c>
       <c r="AK13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="0">
-        <v>0.051959999999999999</v>
+        <v>0.040800000000000003</v>
       </c>
       <c r="AM13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="0">
-        <v>0.12962000000000001</v>
+        <v>0.091090000000000004</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="0">
-        <v>0.13386000000000001</v>
+        <v>0.10773000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="0">
-        <v>0.095589999999999994</v>
+        <v>0.087929999999999994</v>
       </c>
       <c r="E14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="0">
-        <v>0.074690000000000006</v>
+        <v>0.073139999999999997</v>
       </c>
       <c r="G14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="0">
-        <v>0.064409999999999995</v>
+        <v>0.067089999999999997</v>
       </c>
       <c r="I14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="0">
-        <v>0.058099999999999999</v>
+        <v>0.059240000000000001</v>
       </c>
       <c r="K14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="0">
-        <v>0.051580000000000001</v>
+        <v>0.050729999999999997</v>
       </c>
       <c r="M14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="N14" s="0">
-        <v>0.041200000000000001</v>
+        <v>0.038210000000000001</v>
       </c>
       <c r="O14" s="0">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="P14" s="0">
-        <v>0.034889999999999997</v>
+        <v>0.031820000000000001</v>
       </c>
       <c r="Q14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="R14" s="0">
-        <v>0.029440000000000001</v>
+        <v>0.02555</v>
       </c>
       <c r="S14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="T14" s="0">
-        <v>0.026460000000000001</v>
+        <v>0.022259999999999999</v>
       </c>
       <c r="U14" s="0">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="V14" s="0">
-        <v>0.022929999999999999</v>
+        <v>0.0201</v>
       </c>
       <c r="W14" s="0">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="X14" s="0">
-        <v>0.02128</v>
+        <v>0.018759999999999999</v>
       </c>
       <c r="Y14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="0">
-        <v>0.021430000000000001</v>
+        <v>0.017850000000000001</v>
       </c>
       <c r="AA14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AB14" s="0">
-        <v>0.020979999999999999</v>
+        <v>0.0172</v>
       </c>
       <c r="AC14" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="0">
-        <v>0.01941</v>
+        <v>0.017500000000000002</v>
       </c>
       <c r="AE14" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="0">
-        <v>0.019980000000000001</v>
+        <v>0.017840000000000002</v>
       </c>
       <c r="AG14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AH14" s="0">
-        <v>0.023619999999999999</v>
+        <v>0.01873</v>
       </c>
       <c r="AI14" s="0">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="AJ14" s="0">
-        <v>0.01376</v>
+        <v>0.023220000000000001</v>
       </c>
       <c r="AK14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AL14" s="0">
-        <v>0.044139999999999999</v>
+        <v>0.043810000000000002</v>
       </c>
       <c r="AM14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AN14" s="0">
-        <v>0.12601000000000001</v>
+        <v>0.093770000000000006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="0">
-        <v>0.12168</v>
+        <v>0.11258</v>
       </c>
       <c r="C15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="0">
-        <v>0.08949</v>
+        <v>0.090480000000000005</v>
       </c>
       <c r="E15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="0">
-        <v>0.072609999999999994</v>
+        <v>0.076819999999999999</v>
       </c>
       <c r="G15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="0">
-        <v>0.064710000000000004</v>
+        <v>0.070150000000000004</v>
       </c>
       <c r="I15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="0">
-        <v>0.057669999999999999</v>
+        <v>0.060999999999999999</v>
       </c>
       <c r="K15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="0">
-        <v>0.051520000000000003</v>
+        <v>0.053969999999999997</v>
       </c>
       <c r="M15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="0">
-        <v>0.042250000000000003</v>
+        <v>0.040259999999999997</v>
       </c>
       <c r="O15" s="0">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="P15" s="0">
-        <v>0.034229999999999997</v>
+        <v>0.032820000000000002</v>
       </c>
       <c r="Q15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="R15" s="0">
-        <v>0.029149999999999999</v>
+        <v>0.026169999999999999</v>
       </c>
       <c r="S15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="T15" s="0">
-        <v>0.025159999999999998</v>
+        <v>0.022759999999999999</v>
       </c>
       <c r="U15" s="0">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="V15" s="0">
-        <v>0.02154</v>
+        <v>0.02079</v>
       </c>
       <c r="W15" s="0">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X15" s="0">
-        <v>0.019879999999999998</v>
+        <v>0.01932</v>
       </c>
       <c r="Y15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.020209999999999999</v>
+        <v>0.018360000000000001</v>
       </c>
       <c r="AA15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AB15" s="0">
-        <v>0.01942</v>
+        <v>0.017749999999999999</v>
       </c>
       <c r="AC15" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.01788</v>
+        <v>0.018339999999999999</v>
       </c>
       <c r="AE15" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AF15" s="0">
-        <v>0.01823</v>
+        <v>0.018620000000000001</v>
       </c>
       <c r="AG15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AH15" s="0">
-        <v>0.021770000000000001</v>
+        <v>0.019189999999999999</v>
       </c>
       <c r="AI15" s="0">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0.01137</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="AK15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AL15" s="0">
-        <v>0.040169999999999997</v>
+        <v>0.046769999999999999</v>
       </c>
       <c r="AM15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AN15" s="0">
-        <v>0.12379</v>
+        <v>0.097379999999999994</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0">
-        <v>0.11294</v>
+        <v>0.11817999999999999</v>
       </c>
       <c r="C16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="0">
-        <v>0.086459999999999995</v>
+        <v>0.098960000000000006</v>
       </c>
       <c r="E16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="0">
-        <v>0.071590000000000001</v>
+        <v>0.082419999999999993</v>
       </c>
       <c r="G16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H16" s="0">
-        <v>0.064019999999999994</v>
+        <v>0.074459999999999999</v>
       </c>
       <c r="I16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J16" s="0">
-        <v>0.05799</v>
+        <v>0.066860000000000003</v>
       </c>
       <c r="K16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L16" s="0">
-        <v>0.0511</v>
+        <v>0.058090000000000003</v>
       </c>
       <c r="M16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="0">
-        <v>0.040689999999999997</v>
+        <v>0.042569999999999997</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P16" s="0">
-        <v>0.03141</v>
+        <v>0.034130000000000001</v>
       </c>
       <c r="Q16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R16" s="0">
-        <v>0.027199999999999998</v>
+        <v>0.02692</v>
       </c>
       <c r="S16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="T16" s="0">
-        <v>0.023869999999999999</v>
+        <v>0.023640000000000001</v>
       </c>
       <c r="U16" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V16" s="0">
-        <v>0.01983</v>
+        <v>0.021579999999999999</v>
       </c>
       <c r="W16" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X16" s="0">
-        <v>0.018249999999999999</v>
+        <v>0.020140000000000002</v>
       </c>
       <c r="Y16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="0">
-        <v>0.018839999999999999</v>
+        <v>0.019179999999999999</v>
       </c>
       <c r="AA16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AB16" s="0">
-        <v>0.017999999999999999</v>
+        <v>0.01857</v>
       </c>
       <c r="AC16" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.016400000000000001</v>
+        <v>0.019529999999999999</v>
       </c>
       <c r="AE16" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF16" s="0">
-        <v>0.01669</v>
+        <v>0.019810000000000001</v>
       </c>
       <c r="AG16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AH16" s="0">
-        <v>0.01985</v>
+        <v>0.02</v>
       </c>
       <c r="AI16" s="0">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AJ16" s="0">
-        <v>0.0092499999999999995</v>
+        <v>0.02486</v>
       </c>
       <c r="AK16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AL16" s="0">
-        <v>0.036150000000000002</v>
+        <v>0.050189999999999999</v>
       </c>
       <c r="AM16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AN16" s="0">
-        <v>0.12273000000000001</v>
+        <v>0.10191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0">
-        <v>0.10781</v>
+        <v>0.12575</v>
       </c>
       <c r="C17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="0">
-        <v>0.085190000000000002</v>
+        <v>0.10587000000000001</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="0">
-        <v>0.070980000000000001</v>
+        <v>0.091310000000000002</v>
       </c>
       <c r="G17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="0">
-        <v>0.064879999999999993</v>
+        <v>0.083659999999999998</v>
       </c>
       <c r="I17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" s="0">
-        <v>0.057090000000000002</v>
+        <v>0.07195</v>
       </c>
       <c r="K17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="0">
-        <v>0.050750000000000003</v>
+        <v>0.061559999999999997</v>
       </c>
       <c r="M17" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N17" s="0">
-        <v>0.038600000000000002</v>
+        <v>0.047140000000000001</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P17" s="0">
-        <v>0.02955</v>
+        <v>0.035430000000000003</v>
       </c>
       <c r="Q17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R17" s="0">
-        <v>0.025940000000000001</v>
+        <v>0.027890000000000002</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T17" s="0">
-        <v>0.022159999999999999</v>
+        <v>0.024879999999999999</v>
       </c>
       <c r="U17" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V17" s="0">
-        <v>0.01968</v>
+        <v>0.022780000000000002</v>
       </c>
       <c r="W17" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X17" s="0">
-        <v>0.018290000000000001</v>
+        <v>0.0213</v>
       </c>
       <c r="Y17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z17" s="0">
-        <v>0.01728</v>
+        <v>0.020379999999999999</v>
       </c>
       <c r="AA17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="0">
-        <v>0.016559999999999998</v>
+        <v>0.019769999999999999</v>
       </c>
       <c r="AC17" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD17" s="0">
-        <v>0.016559999999999998</v>
+        <v>0.021100000000000001</v>
       </c>
       <c r="AE17" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF17" s="0">
-        <v>0.016910000000000001</v>
+        <v>0.021409999999999999</v>
       </c>
       <c r="AG17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH17" s="0">
-        <v>0.018259999999999998</v>
+        <v>0.02113</v>
       </c>
       <c r="AI17" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ17" s="0">
-        <v>0.0085599999999999999</v>
+        <v>0.026509999999999999</v>
       </c>
       <c r="AK17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="0">
-        <v>0.037409999999999999</v>
+        <v>0.054949999999999999</v>
       </c>
       <c r="AM17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN17" s="0">
-        <v>0.12271</v>
+        <v>0.10736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10730000000000001</v>
+        <v>0.13219</v>
       </c>
       <c r="C18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0">
-        <v>0.085739999999999997</v>
+        <v>0.11337</v>
       </c>
       <c r="E18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F18" s="0">
-        <v>0.072309999999999999</v>
+        <v>0.099339999999999998</v>
       </c>
       <c r="G18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H18" s="0">
-        <v>0.065019999999999994</v>
+        <v>0.092600000000000002</v>
       </c>
       <c r="I18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" s="0">
-        <v>0.058790000000000002</v>
+        <v>0.082879999999999995</v>
       </c>
       <c r="K18" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L18" s="0">
-        <v>0.050729999999999997</v>
+        <v>0.080049999999999996</v>
       </c>
       <c r="M18" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N18" s="0">
-        <v>0.038879999999999998</v>
+        <v>0.05602</v>
       </c>
       <c r="O18" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P18" s="0">
-        <v>0.03083</v>
+        <v>0.03882</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R18" s="0">
-        <v>0.024830000000000001</v>
+        <v>0.029610000000000001</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T18" s="0">
-        <v>0.021770000000000001</v>
+        <v>0.02649</v>
       </c>
       <c r="U18" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V18" s="0">
-        <v>0.0201</v>
+        <v>0.024389999999999999</v>
       </c>
       <c r="W18" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X18" s="0">
-        <v>0.018759999999999999</v>
+        <v>0.022880000000000001</v>
       </c>
       <c r="Y18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z18" s="0">
-        <v>0.017409999999999998</v>
+        <v>0.02198</v>
       </c>
       <c r="AA18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB18" s="0">
-        <v>0.016740000000000001</v>
+        <v>0.021309999999999999</v>
       </c>
       <c r="AC18" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD18" s="0">
-        <v>0.016969999999999999</v>
+        <v>0.022970000000000001</v>
       </c>
       <c r="AE18" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AF18" s="0">
-        <v>0.017299999999999999</v>
+        <v>0.023300000000000001</v>
       </c>
       <c r="AG18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AH18" s="0">
-        <v>0.018460000000000001</v>
+        <v>0.022780000000000002</v>
       </c>
       <c r="AI18" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0.0090399999999999994</v>
+        <v>0.028819999999999998</v>
       </c>
       <c r="AK18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL18" s="0">
-        <v>0.040800000000000003</v>
+        <v>0.060449999999999997</v>
       </c>
       <c r="AM18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN18" s="0">
-        <v>0.12367</v>
+        <v>0.11372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B19" s="0">
-        <v>0.10774</v>
+        <v>0.13866000000000001</v>
       </c>
       <c r="C19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D19" s="0">
-        <v>0.087919999999999998</v>
+        <v>0.12138</v>
       </c>
       <c r="E19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F19" s="0">
-        <v>0.073130000000000001</v>
+        <v>0.10667</v>
       </c>
       <c r="G19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H19" s="0">
-        <v>0.067100000000000007</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="I19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J19" s="0">
-        <v>0.059240000000000001</v>
+        <v>0.092749999999999999</v>
       </c>
       <c r="K19" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L19" s="0">
-        <v>0.053969999999999997</v>
+        <v>0.091359999999999997</v>
       </c>
       <c r="M19" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N19" s="0">
-        <v>0.038210000000000001</v>
+        <v>0.062780000000000002</v>
       </c>
       <c r="O19" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P19" s="0">
-        <v>0.031820000000000001</v>
+        <v>0.041439999999999998</v>
       </c>
       <c r="Q19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R19" s="0">
-        <v>0.02555</v>
+        <v>0.032309999999999999</v>
       </c>
       <c r="S19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T19" s="0">
-        <v>0.022259999999999999</v>
+        <v>0.0287</v>
       </c>
       <c r="U19" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V19" s="0">
-        <v>0.020789999999999999</v>
+        <v>0.02641</v>
       </c>
       <c r="W19" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X19" s="0">
-        <v>0.01932</v>
+        <v>0.024799999999999999</v>
       </c>
       <c r="Y19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z19" s="0">
-        <v>0.017850000000000001</v>
+        <v>0.02383</v>
       </c>
       <c r="AA19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB19" s="0">
-        <v>0.0172</v>
+        <v>0.02316</v>
       </c>
       <c r="AC19" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AD19" s="0">
-        <v>0.017500000000000002</v>
+        <v>0.025090000000000001</v>
       </c>
       <c r="AE19" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AF19" s="0">
-        <v>0.017840000000000002</v>
+        <v>0.025479999999999999</v>
       </c>
       <c r="AG19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AH19" s="0">
-        <v>0.01873</v>
+        <v>0.02478</v>
       </c>
       <c r="AI19" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ19" s="0">
-        <v>0.0096200000000000001</v>
+        <v>0.031449999999999999</v>
       </c>
       <c r="AK19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL19" s="0">
-        <v>0.043810000000000002</v>
+        <v>0.068210000000000007</v>
       </c>
       <c r="AM19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AN19" s="0">
-        <v>0.12561</v>
+        <v>0.12094000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B20" s="0">
-        <v>0.11257</v>
+        <v>0.14677999999999999</v>
       </c>
       <c r="C20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D20" s="0">
-        <v>0.090509999999999993</v>
+        <v>0.12953000000000001</v>
       </c>
       <c r="E20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F20" s="0">
-        <v>0.076780000000000001</v>
+        <v>0.11681999999999999</v>
       </c>
       <c r="G20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H20" s="0">
-        <v>0.07016</v>
+        <v>0.11294</v>
       </c>
       <c r="I20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J20" s="0">
-        <v>0.060999999999999999</v>
+        <v>0.10437</v>
       </c>
       <c r="K20" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L20" s="0">
-        <v>0.058090000000000003</v>
+        <v>0.10408000000000001</v>
       </c>
       <c r="M20" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N20" s="0">
-        <v>0.040259999999999997</v>
+        <v>0.12475</v>
       </c>
       <c r="O20" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P20" s="0">
-        <v>0.032820000000000002</v>
+        <v>0.045539999999999997</v>
       </c>
       <c r="Q20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R20" s="0">
-        <v>0.026169999999999999</v>
+        <v>0.03456</v>
       </c>
       <c r="S20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T20" s="0">
-        <v>0.022759999999999999</v>
+        <v>0.030849999999999999</v>
       </c>
       <c r="U20" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V20" s="0">
-        <v>0.021579999999999998</v>
+        <v>0.02862</v>
       </c>
       <c r="W20" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X20" s="0">
-        <v>0.020140000000000002</v>
+        <v>0.026939999999999999</v>
       </c>
       <c r="Y20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z20" s="0">
-        <v>0.018360000000000001</v>
+        <v>0.02597</v>
       </c>
       <c r="AA20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB20" s="0">
-        <v>0.017749999999999998</v>
+        <v>0.02529</v>
       </c>
       <c r="AC20" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD20" s="0">
-        <v>0.018339999999999999</v>
+        <v>0.027490000000000001</v>
       </c>
       <c r="AE20" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AF20" s="0">
-        <v>0.018620000000000001</v>
+        <v>0.027980000000000001</v>
       </c>
       <c r="AG20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AH20" s="0">
-        <v>0.019189999999999999</v>
+        <v>0.02707</v>
       </c>
       <c r="AI20" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AJ20" s="0">
-        <v>0.01027</v>
+        <v>0.034419999999999999</v>
       </c>
       <c r="AK20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AL20" s="0">
-        <v>0.046769999999999999</v>
+        <v>0.077369999999999994</v>
       </c>
       <c r="AM20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AN20" s="0">
-        <v>0.12848000000000001</v>
+        <v>0.12897</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B21" s="0">
-        <v>0.11817999999999999</v>
+        <v>0.15639</v>
       </c>
       <c r="C21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0">
-        <v>0.098949999999999996</v>
+        <v>0.13783999999999999</v>
       </c>
       <c r="E21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F21" s="0">
-        <v>0.082400000000000001</v>
+        <v>0.12665000000000001</v>
       </c>
       <c r="G21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H21" s="0">
-        <v>0.074469999999999995</v>
+        <v>0.12116</v>
       </c>
       <c r="I21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J21" s="0">
-        <v>0.066860000000000003</v>
+        <v>0.11570999999999999</v>
       </c>
       <c r="K21" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L21" s="0">
-        <v>0.061550000000000001</v>
+        <v>0.11709</v>
       </c>
       <c r="M21" s="0">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N21" s="0">
-        <v>0.042569999999999997</v>
+        <v>0.13647000000000001</v>
       </c>
       <c r="O21" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P21" s="0">
-        <v>0.034130000000000001</v>
+        <v>0.088099999999999998</v>
       </c>
       <c r="Q21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R21" s="0">
-        <v>0.026919999999999999</v>
+        <v>0.038280000000000002</v>
       </c>
       <c r="S21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T21" s="0">
-        <v>0.023640000000000001</v>
+        <v>0.033820000000000003</v>
       </c>
       <c r="U21" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V21" s="0">
-        <v>0.022780000000000002</v>
+        <v>0.031130000000000001</v>
       </c>
       <c r="W21" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X21" s="0">
-        <v>0.021299999999999999</v>
+        <v>0.02946</v>
       </c>
       <c r="Y21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z21" s="0">
-        <v>0.019179999999999999</v>
+        <v>0.028389999999999999</v>
       </c>
       <c r="AA21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.01857</v>
+        <v>0.027650000000000001</v>
       </c>
       <c r="AC21" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.019529999999999999</v>
+        <v>0.03039</v>
       </c>
       <c r="AE21" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF21" s="0">
-        <v>0.019810000000000001</v>
+        <v>0.031</v>
       </c>
       <c r="AG21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AH21" s="0">
-        <v>0.02</v>
+        <v>0.029749999999999999</v>
       </c>
       <c r="AI21" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0.011039999999999999</v>
+        <v>0.03841</v>
       </c>
       <c r="AK21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL21" s="0">
-        <v>0.050189999999999999</v>
+        <v>0.08677</v>
       </c>
       <c r="AM21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AN21" s="0">
-        <v>0.13222999999999999</v>
+        <v>0.13775999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B22" s="0">
-        <v>0.12581000000000001</v>
+        <v>0.16242000000000001</v>
       </c>
       <c r="C22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D22" s="0">
-        <v>0.10587000000000001</v>
+        <v>0.14642</v>
       </c>
       <c r="E22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F22" s="0">
-        <v>0.091300000000000006</v>
+        <v>0.13417000000000001</v>
       </c>
       <c r="G22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H22" s="0">
-        <v>0.083659999999999998</v>
+        <v>0.1336</v>
       </c>
       <c r="I22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J22" s="0">
-        <v>0.071970000000000006</v>
+        <v>0.12401</v>
       </c>
       <c r="K22" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L22" s="0">
-        <v>0.080049999999999996</v>
+        <v>0.12881999999999999</v>
       </c>
       <c r="M22" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N22" s="0">
-        <v>0.047140000000000001</v>
+        <v>0.14724999999999999</v>
       </c>
       <c r="O22" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P22" s="0">
-        <v>0.035430000000000003</v>
+        <v>0.12026000000000001</v>
       </c>
       <c r="Q22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R22" s="0">
-        <v>0.027890000000000002</v>
+        <v>0.042549999999999998</v>
       </c>
       <c r="S22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" s="0">
-        <v>0.024879999999999999</v>
+        <v>0.037339999999999998</v>
       </c>
       <c r="U22" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V22" s="0">
-        <v>0.024389999999999998</v>
+        <v>0.034349999999999999</v>
       </c>
       <c r="W22" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X22" s="0">
-        <v>0.022880000000000001</v>
+        <v>0.03254</v>
       </c>
       <c r="Y22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z22" s="0">
-        <v>0.020379999999999999</v>
+        <v>0.031399999999999997</v>
       </c>
       <c r="AA22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB22" s="0">
-        <v>0.019769999999999999</v>
+        <v>0.030609999999999998</v>
       </c>
       <c r="AC22" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AD22" s="0">
-        <v>0.021100000000000001</v>
+        <v>0.034229999999999997</v>
       </c>
       <c r="AE22" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF22" s="0">
-        <v>0.021409999999999998</v>
+        <v>0.035069999999999997</v>
       </c>
       <c r="AG22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AH22" s="0">
-        <v>0.021129999999999999</v>
+        <v>0.033000000000000002</v>
       </c>
       <c r="AI22" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ22" s="0">
-        <v>0.01256</v>
+        <v>0.044089999999999997</v>
       </c>
       <c r="AK22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL22" s="0">
-        <v>0.054949999999999999</v>
+        <v>0.097540000000000002</v>
       </c>
       <c r="AM22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AN22" s="0">
-        <v>0.13683999999999999</v>
+        <v>0.14721999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0">
-        <v>0.13228000000000001</v>
+        <v>0.16966000000000001</v>
       </c>
       <c r="C23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0">
-        <v>0.11339</v>
+        <v>0.15526999999999999</v>
       </c>
       <c r="E23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F23" s="0">
-        <v>0.099349999999999994</v>
+        <v>0.14465</v>
       </c>
       <c r="G23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0">
-        <v>0.092600000000000002</v>
+        <v>0.14380000000000001</v>
       </c>
       <c r="I23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J23" s="0">
-        <v>0.082879999999999995</v>
+        <v>0.13602</v>
       </c>
       <c r="K23" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L23" s="0">
-        <v>0.091359999999999997</v>
+        <v>0.13841000000000001</v>
       </c>
       <c r="M23" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N23" s="0">
-        <v>0.062780000000000002</v>
+        <v>0.15704000000000001</v>
       </c>
       <c r="O23" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P23" s="0">
-        <v>0.03882</v>
+        <v>0.13062000000000001</v>
       </c>
       <c r="Q23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R23" s="0">
-        <v>0.029610000000000001</v>
+        <v>0.047789999999999999</v>
       </c>
       <c r="S23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T23" s="0">
-        <v>0.02649</v>
+        <v>0.041669999999999999</v>
       </c>
       <c r="U23" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V23" s="0">
-        <v>0.026409999999999999</v>
+        <v>0.03832</v>
       </c>
       <c r="W23" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X23" s="0">
-        <v>0.024799999999999999</v>
+        <v>0.036080000000000001</v>
       </c>
       <c r="Y23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z23" s="0">
-        <v>0.02198</v>
+        <v>0.034779999999999999</v>
       </c>
       <c r="AA23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AB23" s="0">
-        <v>0.021309999999999999</v>
+        <v>0.034259999999999999</v>
       </c>
       <c r="AC23" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AD23" s="0">
-        <v>0.022970000000000001</v>
+        <v>0.039480000000000001</v>
       </c>
       <c r="AE23" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AF23" s="0">
-        <v>0.023300000000000001</v>
+        <v>0.041009999999999998</v>
       </c>
       <c r="AG23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AH23" s="0">
-        <v>0.022780000000000002</v>
+        <v>0.037740000000000003</v>
       </c>
       <c r="AI23" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ23" s="0">
-        <v>0.0146</v>
+        <v>0.052780000000000001</v>
       </c>
       <c r="AK23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AL23" s="0">
-        <v>0.060449999999999997</v>
+        <v>0.11046</v>
       </c>
       <c r="AM23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AN23" s="0">
-        <v>0.14229</v>
+        <v>0.15731000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B24" s="0">
-        <v>0.13866999999999999</v>
+        <v>0.17693999999999999</v>
       </c>
       <c r="C24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24" s="0">
-        <v>0.12137000000000001</v>
+        <v>0.16347999999999999</v>
       </c>
       <c r="E24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F24" s="0">
-        <v>0.10684</v>
+        <v>0.15279000000000001</v>
       </c>
       <c r="G24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H24" s="0">
-        <v>0.10249999999999999</v>
+        <v>0.15239</v>
       </c>
       <c r="I24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J24" s="0">
-        <v>0.092740000000000003</v>
+        <v>0.14728</v>
       </c>
       <c r="K24" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L24" s="0">
-        <v>0.10409</v>
-      </c>
-      <c r="M24" s="0">
-        <v>11</v>
-      </c>
-      <c r="N24" s="0">
-        <v>0.11193</v>
+        <v>0.14731</v>
       </c>
       <c r="O24" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P24" s="0">
-        <v>0.041439999999999998</v>
+        <v>0.14632999999999999</v>
       </c>
       <c r="Q24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R24" s="0">
-        <v>0.032309999999999998</v>
+        <v>0.057509999999999999</v>
       </c>
       <c r="S24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T24" s="0">
-        <v>0.0287</v>
+        <v>0.047559999999999998</v>
       </c>
       <c r="U24" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V24" s="0">
-        <v>0.02862</v>
+        <v>0.043490000000000001</v>
       </c>
       <c r="W24" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X24" s="0">
-        <v>0.026939999999999999</v>
+        <v>0.04054</v>
       </c>
       <c r="Y24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.02383</v>
+        <v>0.039750000000000001</v>
       </c>
       <c r="AA24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AB24" s="0">
-        <v>0.02316</v>
+        <v>0.038940000000000002</v>
       </c>
       <c r="AC24" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD24" s="0">
-        <v>0.025090000000000001</v>
+        <v>0.047050000000000002</v>
       </c>
       <c r="AE24" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AF24" s="0">
-        <v>0.025479999999999999</v>
+        <v>0.049500000000000002</v>
       </c>
       <c r="AG24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AH24" s="0">
-        <v>0.02478</v>
+        <v>0.04444</v>
       </c>
       <c r="AI24" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AJ24" s="0">
-        <v>0.017049999999999999</v>
+        <v>0.063270000000000007</v>
       </c>
       <c r="AK24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AL24" s="0">
-        <v>0.068210000000000007</v>
+        <v>0.12456</v>
       </c>
       <c r="AM24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AN24" s="0">
-        <v>0.14857000000000001</v>
+        <v>0.16797000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B25" s="0">
-        <v>0.14677000000000001</v>
+        <v>0.18481</v>
       </c>
       <c r="C25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D25" s="0">
-        <v>0.12952</v>
+        <v>0.17213000000000001</v>
       </c>
       <c r="E25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F25" s="0">
-        <v>0.11685</v>
+        <v>0.16214999999999999</v>
       </c>
       <c r="G25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H25" s="0">
-        <v>0.11294</v>
+        <v>0.16278000000000001</v>
       </c>
       <c r="I25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J25" s="0">
-        <v>0.10437</v>
+        <v>0.15679000000000001</v>
       </c>
       <c r="K25" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L25" s="0">
-        <v>0.11709</v>
-      </c>
-      <c r="M25" s="0">
-        <v>12</v>
-      </c>
-      <c r="N25" s="0">
-        <v>0.12474</v>
-      </c>
-      <c r="O25" s="0">
-        <v>9</v>
-      </c>
-      <c r="P25" s="0">
-        <v>0.045539999999999997</v>
+        <v>0.15848999999999999</v>
       </c>
       <c r="Q25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R25" s="0">
-        <v>0.03456</v>
+        <v>0.091910000000000006</v>
       </c>
       <c r="S25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T25" s="0">
-        <v>0.030849999999999999</v>
+        <v>0.05749</v>
       </c>
       <c r="U25" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V25" s="0">
-        <v>0.031130000000000001</v>
+        <v>0.049430000000000002</v>
       </c>
       <c r="W25" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X25" s="0">
-        <v>0.02946</v>
+        <v>0.047500000000000001</v>
       </c>
       <c r="Y25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.02596</v>
+        <v>0.045780000000000001</v>
       </c>
       <c r="AA25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB25" s="0">
-        <v>0.02529</v>
+        <v>0.046059999999999997</v>
       </c>
       <c r="AC25" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD25" s="0">
-        <v>0.027490000000000001</v>
+        <v>0.057660000000000003</v>
       </c>
       <c r="AE25" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AF25" s="0">
-        <v>0.027980000000000001</v>
+        <v>0.060789999999999997</v>
       </c>
       <c r="AG25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH25" s="0">
-        <v>0.02707</v>
+        <v>0.053960000000000001</v>
       </c>
       <c r="AI25" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ25" s="0">
-        <v>0.020369999999999999</v>
+        <v>0.079689999999999997</v>
       </c>
       <c r="AK25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AL25" s="0">
-        <v>0.077359999999999998</v>
+        <v>0.14121</v>
       </c>
       <c r="AM25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AN25" s="0">
-        <v>0.15565000000000001</v>
+        <v>0.17913000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B26" s="0">
-        <v>0.15634999999999999</v>
+        <v>0.19275</v>
       </c>
       <c r="C26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="0">
-        <v>0.13783999999999999</v>
+        <v>0.18603</v>
       </c>
       <c r="E26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F26" s="0">
-        <v>0.12665000000000001</v>
+        <v>0.17049</v>
       </c>
       <c r="G26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H26" s="0">
-        <v>0.12116</v>
+        <v>0.17194000000000001</v>
       </c>
       <c r="I26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J26" s="0">
-        <v>0.11570999999999999</v>
+        <v>0.16475999999999999</v>
       </c>
       <c r="K26" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L26" s="0">
-        <v>0.12883</v>
-      </c>
-      <c r="M26" s="0">
-        <v>13</v>
-      </c>
-      <c r="N26" s="0">
-        <v>0.13647000000000001</v>
-      </c>
-      <c r="O26" s="0">
+        <v>0.16864000000000001</v>
+      </c>
+      <c r="S26" s="0">
         <v>14</v>
       </c>
-      <c r="P26" s="0">
-        <v>0.13062000000000001</v>
-      </c>
-      <c r="Q26" s="0">
-        <v>9</v>
-      </c>
-      <c r="R26" s="0">
-        <v>0.038280000000000002</v>
-      </c>
-      <c r="S26" s="0">
-        <v>9</v>
-      </c>
       <c r="T26" s="0">
-        <v>0.033820000000000003</v>
+        <v>0.070040000000000005</v>
       </c>
       <c r="U26" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V26" s="0">
-        <v>0.034360000000000002</v>
+        <v>0.058709999999999998</v>
       </c>
       <c r="W26" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X26" s="0">
-        <v>0.032539999999999999</v>
+        <v>0.056030000000000004</v>
       </c>
       <c r="Y26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Z26" s="0">
-        <v>0.028389999999999999</v>
+        <v>0.055840000000000001</v>
       </c>
       <c r="AA26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.027650000000000001</v>
+        <v>0.056009999999999997</v>
       </c>
       <c r="AC26" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD26" s="0">
-        <v>0.03039</v>
+        <v>0.071300000000000002</v>
       </c>
       <c r="AE26" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AF26" s="0">
-        <v>0.031</v>
+        <v>0.075340000000000004</v>
       </c>
       <c r="AG26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH26" s="0">
-        <v>0.029749999999999999</v>
+        <v>0.065619999999999998</v>
       </c>
       <c r="AI26" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AJ26" s="0">
-        <v>0.024219999999999998</v>
+        <v>0.11398</v>
       </c>
       <c r="AK26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AL26" s="0">
-        <v>0.08677</v>
+        <v>0.15806999999999999</v>
       </c>
       <c r="AM26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AN26" s="0">
-        <v>0.16350000000000001</v>
+        <v>0.19077</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B27" s="0">
-        <v>0.16241</v>
+        <v>0.20066000000000001</v>
       </c>
       <c r="C27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" s="0">
-        <v>0.14643999999999999</v>
+        <v>0.19228999999999999</v>
       </c>
       <c r="E27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F27" s="0">
-        <v>0.13421</v>
+        <v>0.17874999999999999</v>
       </c>
       <c r="G27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H27" s="0">
-        <v>0.1336</v>
+        <v>0.18029999999999999</v>
       </c>
       <c r="I27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J27" s="0">
-        <v>0.12403</v>
-      </c>
-      <c r="K27" s="0">
-        <v>12</v>
-      </c>
-      <c r="L27" s="0">
-        <v>0.13841000000000001</v>
-      </c>
-      <c r="M27" s="0">
-        <v>14</v>
-      </c>
-      <c r="N27" s="0">
-        <v>0.14724999999999999</v>
-      </c>
-      <c r="O27" s="0">
+        <v>0.17484</v>
+      </c>
+      <c r="S27" s="0">
         <v>15</v>
       </c>
-      <c r="P27" s="0">
-        <v>0.14632999999999999</v>
-      </c>
-      <c r="Q27" s="0">
-        <v>10</v>
-      </c>
-      <c r="R27" s="0">
-        <v>0.042560000000000001</v>
-      </c>
-      <c r="S27" s="0">
-        <v>10</v>
-      </c>
       <c r="T27" s="0">
-        <v>0.037330000000000002</v>
+        <v>0.10673000000000001</v>
       </c>
       <c r="U27" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V27" s="0">
-        <v>0.03832</v>
+        <v>0.079719999999999999</v>
       </c>
       <c r="W27" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X27" s="0">
-        <v>0.036080000000000001</v>
+        <v>0.071730000000000002</v>
       </c>
       <c r="Y27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.031399999999999997</v>
+        <v>0.069570000000000007</v>
       </c>
       <c r="AA27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.030609999999999998</v>
-      </c>
-      <c r="AC27" s="0">
-        <v>11</v>
-      </c>
-      <c r="AD27" s="0">
-        <v>0.034229999999999997</v>
-      </c>
-      <c r="AE27" s="0">
-        <v>11</v>
-      </c>
-      <c r="AF27" s="0">
-        <v>0.035069999999999997</v>
+        <v>0.069239999999999996</v>
       </c>
       <c r="AG27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH27" s="0">
-        <v>0.033000000000000002</v>
-      </c>
-      <c r="AI27" s="0">
-        <v>10</v>
-      </c>
-      <c r="AJ27" s="0">
-        <v>0.02947</v>
+        <v>0.080990000000000007</v>
       </c>
       <c r="AK27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL27" s="0">
-        <v>0.097530000000000006</v>
+        <v>0.17402999999999999</v>
       </c>
       <c r="AM27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AN27" s="0">
-        <v>0.17207</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>11</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.16958999999999999</v>
-      </c>
-      <c r="C28" s="0">
-        <v>11</v>
-      </c>
-      <c r="D28" s="0">
-        <v>0.15523000000000001</v>
-      </c>
-      <c r="E28" s="0">
-        <v>11</v>
-      </c>
-      <c r="F28" s="0">
-        <v>0.14474000000000001</v>
-      </c>
-      <c r="G28" s="0">
-        <v>11</v>
-      </c>
-      <c r="H28" s="0">
-        <v>0.14379</v>
-      </c>
-      <c r="I28" s="0">
-        <v>11</v>
-      </c>
-      <c r="J28" s="0">
-        <v>0.13600999999999999</v>
-      </c>
-      <c r="K28" s="0">
-        <v>13</v>
-      </c>
-      <c r="L28" s="0">
-        <v>0.14732000000000001</v>
-      </c>
-      <c r="M28" s="0">
-        <v>15</v>
-      </c>
-      <c r="N28" s="0">
-        <v>0.15704000000000001</v>
-      </c>
-      <c r="Q28" s="0">
-        <v>11</v>
-      </c>
-      <c r="R28" s="0">
-        <v>0.047780000000000003</v>
-      </c>
-      <c r="S28" s="0">
-        <v>11</v>
-      </c>
-      <c r="T28" s="0">
-        <v>0.041669999999999999</v>
-      </c>
-      <c r="U28" s="0">
-        <v>12</v>
-      </c>
-      <c r="V28" s="0">
-        <v>0.043490000000000001</v>
-      </c>
-      <c r="W28" s="0">
-        <v>12</v>
-      </c>
-      <c r="X28" s="0">
-        <v>0.04054</v>
-      </c>
-      <c r="Y28" s="0">
-        <v>11</v>
-      </c>
-      <c r="Z28" s="0">
-        <v>0.034779999999999998</v>
-      </c>
-      <c r="AA28" s="0">
-        <v>11</v>
-      </c>
-      <c r="AB28" s="0">
-        <v>0.034259999999999999</v>
-      </c>
-      <c r="AC28" s="0">
-        <v>12</v>
-      </c>
-      <c r="AD28" s="0">
-        <v>0.039480000000000001</v>
-      </c>
-      <c r="AE28" s="0">
-        <v>12</v>
-      </c>
-      <c r="AF28" s="0">
-        <v>0.041009999999999998</v>
-      </c>
-      <c r="AG28" s="0">
-        <v>11</v>
-      </c>
-      <c r="AH28" s="0">
-        <v>0.037740000000000003</v>
-      </c>
-      <c r="AI28" s="0">
-        <v>11</v>
-      </c>
-      <c r="AJ28" s="0">
-        <v>0.038379999999999997</v>
-      </c>
-      <c r="AK28" s="0">
-        <v>11</v>
-      </c>
-      <c r="AL28" s="0">
-        <v>0.11046</v>
-      </c>
-      <c r="AM28" s="0">
-        <v>11</v>
-      </c>
-      <c r="AN28" s="0">
-        <v>0.18134</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>12</v>
-      </c>
-      <c r="B29" s="0">
-        <v>0.17693</v>
-      </c>
-      <c r="C29" s="0">
-        <v>12</v>
-      </c>
-      <c r="D29" s="0">
-        <v>0.16347999999999999</v>
-      </c>
-      <c r="E29" s="0">
-        <v>12</v>
-      </c>
-      <c r="F29" s="0">
-        <v>0.15279000000000001</v>
-      </c>
-      <c r="G29" s="0">
-        <v>12</v>
-      </c>
-      <c r="H29" s="0">
-        <v>0.15237999999999999</v>
-      </c>
-      <c r="I29" s="0">
-        <v>12</v>
-      </c>
-      <c r="J29" s="0">
-        <v>0.14727999999999999</v>
-      </c>
-      <c r="K29" s="0">
-        <v>14</v>
-      </c>
-      <c r="L29" s="0">
-        <v>0.1585</v>
-      </c>
-      <c r="Q29" s="0">
-        <v>12</v>
-      </c>
-      <c r="R29" s="0">
-        <v>0.057549999999999997</v>
-      </c>
-      <c r="S29" s="0">
-        <v>12</v>
-      </c>
-      <c r="T29" s="0">
-        <v>0.047559999999999998</v>
-      </c>
-      <c r="U29" s="0">
-        <v>13</v>
-      </c>
-      <c r="V29" s="0">
-        <v>0.049430000000000002</v>
-      </c>
-      <c r="W29" s="0">
-        <v>13</v>
-      </c>
-      <c r="X29" s="0">
-        <v>0.047500000000000001</v>
-      </c>
-      <c r="Y29" s="0">
-        <v>12</v>
-      </c>
-      <c r="Z29" s="0">
-        <v>0.039739999999999998</v>
-      </c>
-      <c r="AA29" s="0">
-        <v>12</v>
-      </c>
-      <c r="AB29" s="0">
-        <v>0.038940000000000002</v>
-      </c>
-      <c r="AC29" s="0">
-        <v>13</v>
-      </c>
-      <c r="AD29" s="0">
-        <v>0.047050000000000002</v>
-      </c>
-      <c r="AE29" s="0">
-        <v>13</v>
-      </c>
-      <c r="AF29" s="0">
-        <v>0.049500000000000002</v>
-      </c>
-      <c r="AG29" s="0">
-        <v>12</v>
-      </c>
-      <c r="AH29" s="0">
-        <v>0.04444</v>
-      </c>
-      <c r="AI29" s="0">
-        <v>12</v>
-      </c>
-      <c r="AJ29" s="0">
-        <v>0.051970000000000002</v>
-      </c>
-      <c r="AK29" s="0">
-        <v>12</v>
-      </c>
-      <c r="AL29" s="0">
-        <v>0.12456</v>
-      </c>
-      <c r="AM29" s="0">
-        <v>12</v>
-      </c>
-      <c r="AN29" s="0">
-        <v>0.19128999999999999</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>13</v>
-      </c>
-      <c r="B30" s="0">
-        <v>0.18484</v>
-      </c>
-      <c r="C30" s="0">
-        <v>13</v>
-      </c>
-      <c r="D30" s="0">
-        <v>0.1721</v>
-      </c>
-      <c r="E30" s="0">
-        <v>13</v>
-      </c>
-      <c r="F30" s="0">
-        <v>0.16211</v>
-      </c>
-      <c r="G30" s="0">
-        <v>13</v>
-      </c>
-      <c r="H30" s="0">
-        <v>0.16278000000000001</v>
-      </c>
-      <c r="I30" s="0">
-        <v>13</v>
-      </c>
-      <c r="J30" s="0">
-        <v>0.15679000000000001</v>
-      </c>
-      <c r="K30" s="0">
-        <v>15</v>
-      </c>
-      <c r="L30" s="0">
-        <v>0.16864000000000001</v>
-      </c>
-      <c r="S30" s="0">
-        <v>13</v>
-      </c>
-      <c r="T30" s="0">
-        <v>0.057489999999999999</v>
-      </c>
-      <c r="U30" s="0">
-        <v>14</v>
-      </c>
-      <c r="V30" s="0">
-        <v>0.058709999999999998</v>
-      </c>
-      <c r="W30" s="0">
-        <v>14</v>
-      </c>
-      <c r="X30" s="0">
-        <v>0.056030000000000003</v>
-      </c>
-      <c r="Y30" s="0">
-        <v>13</v>
-      </c>
-      <c r="Z30" s="0">
-        <v>0.045780000000000001</v>
-      </c>
-      <c r="AA30" s="0">
-        <v>13</v>
-      </c>
-      <c r="AB30" s="0">
-        <v>0.046059999999999997</v>
-      </c>
-      <c r="AC30" s="0">
-        <v>14</v>
-      </c>
-      <c r="AD30" s="0">
-        <v>0.05765</v>
-      </c>
-      <c r="AE30" s="0">
-        <v>14</v>
-      </c>
-      <c r="AF30" s="0">
-        <v>0.060789999999999997</v>
-      </c>
-      <c r="AG30" s="0">
-        <v>13</v>
-      </c>
-      <c r="AH30" s="0">
-        <v>0.053960000000000001</v>
-      </c>
-      <c r="AI30" s="0">
-        <v>13</v>
-      </c>
-      <c r="AJ30" s="0">
-        <v>0.071739999999999998</v>
-      </c>
-      <c r="AK30" s="0">
-        <v>13</v>
-      </c>
-      <c r="AL30" s="0">
-        <v>0.14121</v>
-      </c>
-      <c r="AM30" s="0">
-        <v>13</v>
-      </c>
-      <c r="AN30" s="0">
-        <v>0.20185</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>14</v>
-      </c>
-      <c r="B31" s="0">
-        <v>0.19275999999999999</v>
-      </c>
-      <c r="C31" s="0">
-        <v>14</v>
-      </c>
-      <c r="D31" s="0">
-        <v>0.18597</v>
-      </c>
-      <c r="E31" s="0">
-        <v>14</v>
-      </c>
-      <c r="F31" s="0">
-        <v>0.17047999999999999</v>
-      </c>
-      <c r="G31" s="0">
-        <v>14</v>
-      </c>
-      <c r="H31" s="0">
-        <v>0.17194000000000001</v>
-      </c>
-      <c r="I31" s="0">
-        <v>14</v>
-      </c>
-      <c r="J31" s="0">
-        <v>0.16474</v>
-      </c>
-      <c r="S31" s="0">
-        <v>14</v>
-      </c>
-      <c r="T31" s="0">
-        <v>0.070019999999999999</v>
-      </c>
-      <c r="U31" s="0">
-        <v>15</v>
-      </c>
-      <c r="V31" s="0">
-        <v>0.079710000000000003</v>
-      </c>
-      <c r="W31" s="0">
-        <v>15</v>
-      </c>
-      <c r="X31" s="0">
-        <v>0.071730000000000002</v>
-      </c>
-      <c r="Y31" s="0">
-        <v>14</v>
-      </c>
-      <c r="Z31" s="0">
-        <v>0.055829999999999998</v>
-      </c>
-      <c r="AA31" s="0">
-        <v>14</v>
-      </c>
-      <c r="AB31" s="0">
-        <v>0.056009999999999997</v>
-      </c>
-      <c r="AC31" s="0">
-        <v>15</v>
-      </c>
-      <c r="AD31" s="0">
-        <v>0.071290000000000006</v>
-      </c>
-      <c r="AE31" s="0">
-        <v>15</v>
-      </c>
-      <c r="AF31" s="0">
-        <v>0.075340000000000004</v>
-      </c>
-      <c r="AG31" s="0">
-        <v>14</v>
-      </c>
-      <c r="AH31" s="0">
-        <v>0.065619999999999998</v>
-      </c>
-      <c r="AI31" s="0">
-        <v>14</v>
-      </c>
-      <c r="AJ31" s="0">
-        <v>0.09955</v>
-      </c>
-      <c r="AK31" s="0">
-        <v>14</v>
-      </c>
-      <c r="AL31" s="0">
-        <v>0.15806999999999999</v>
-      </c>
-      <c r="AM31" s="0">
-        <v>14</v>
-      </c>
-      <c r="AN31" s="0">
-        <v>0.21296000000000001</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>15</v>
-      </c>
-      <c r="B32" s="0">
-        <v>0.20066000000000001</v>
-      </c>
-      <c r="C32" s="0">
-        <v>15</v>
-      </c>
-      <c r="D32" s="0">
-        <v>0.19228999999999999</v>
-      </c>
-      <c r="E32" s="0">
-        <v>15</v>
-      </c>
-      <c r="F32" s="0">
-        <v>0.17877000000000001</v>
-      </c>
-      <c r="G32" s="0">
-        <v>15</v>
-      </c>
-      <c r="H32" s="0">
-        <v>0.18029999999999999</v>
-      </c>
-      <c r="I32" s="0">
-        <v>15</v>
-      </c>
-      <c r="J32" s="0">
-        <v>0.17483000000000001</v>
-      </c>
-      <c r="S32" s="0">
-        <v>15</v>
-      </c>
-      <c r="T32" s="0">
-        <v>0.10672</v>
-      </c>
-      <c r="Y32" s="0">
-        <v>15</v>
-      </c>
-      <c r="Z32" s="0">
-        <v>0.069570000000000007</v>
-      </c>
-      <c r="AA32" s="0">
-        <v>15</v>
-      </c>
-      <c r="AB32" s="0">
-        <v>0.069239999999999996</v>
-      </c>
-      <c r="AG32" s="0">
-        <v>15</v>
-      </c>
-      <c r="AH32" s="0">
-        <v>0.080990000000000006</v>
-      </c>
-      <c r="AI32" s="0">
-        <v>15</v>
-      </c>
-      <c r="AJ32" s="0">
-        <v>0.13167000000000001</v>
-      </c>
-      <c r="AK32" s="0">
-        <v>15</v>
-      </c>
-      <c r="AL32" s="0">
-        <v>0.17402999999999999</v>
-      </c>
-      <c r="AM32" s="0">
-        <v>15</v>
-      </c>
-      <c r="AN32" s="0">
-        <v>0.22456000000000001</v>
+        <v>0.20280000000000001</v>
       </c>
     </row>
   </sheetData>
